--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.3497567887281834</v>
       </c>
-      <c r="BA2">
-        <v>0.3497567887281834</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>-0.06966572625950762</v>
       </c>
-      <c r="BA3">
-        <v>-0.06966572625950762</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>-0.01924940494492629</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C4">
         <v>-0.5718192715580426</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>-0.5718192715580426</v>
       </c>
-      <c r="BA4">
-        <v>-0.5718192715580426</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>-0.06663284783358531</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C5">
         <v>0.02513501597327435</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>0.02513501597327435</v>
       </c>
-      <c r="BA5">
-        <v>0.02513501597327435</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>0.03629218069820918</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C6">
-        <v>-0.2405878515234746</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D6">
         <v>-0.6777052466944516</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>-0.6777052466944516</v>
       </c>
-      <c r="BA6">
-        <v>-0.6777052466944516</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C7">
-        <v>-0.2565881803834</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D7">
         <v>-0.04687708722170142</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>-0.04687708722170142</v>
       </c>
-      <c r="BA7">
-        <v>-0.04687708722170142</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C8">
-        <v>-0.05965445889038837</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D8">
-        <v>0.1154633794187413</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E8">
         <v>-0.6491824449565908</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>-0.6491824449565908</v>
       </c>
-      <c r="BA8">
-        <v>-0.6491824449565908</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C9">
-        <v>0.08248866744956523</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D9">
-        <v>0.1876873037273885</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E9">
         <v>-0.03143360567770964</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>-0.03143360567770964</v>
       </c>
-      <c r="BA9">
-        <v>-0.03143360567770964</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C10">
-        <v>0.2156316506194657</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D10">
-        <v>0.2468174487364038</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E10">
-        <v>-0.08585223680834608</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F10">
         <v>0.3822062224503651</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>0.3822062224503651</v>
       </c>
-      <c r="BA10">
-        <v>0.3822062224503651</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C11">
-        <v>-0.05836704064936939</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D11">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E11">
-        <v>-0.006925139308233144</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F11">
         <v>-0.04722993886919886</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>-0.04722993886919886</v>
       </c>
-      <c r="BA11">
-        <v>-0.04722993886919886</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C12">
-        <v>-0.05836704064936939</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D12">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E12">
-        <v>0.06785951712430745</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F12">
-        <v>-0.04806623405398856</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G12">
         <v>-0.5591348797726128</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>-0.5591348797726128</v>
       </c>
-      <c r="BA12">
-        <v>-0.5591348797726128</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>0.04610019807767467</v>
+        <v>0.1400455312343379</v>
       </c>
       <c r="C13">
-        <v>-0.05836704064936939</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D13">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E13">
-        <v>-0.02967973296111875</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F13">
-        <v>-0.1648210426608209</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G13">
         <v>-0.3824674568541571</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>-0.3824674568541571</v>
       </c>
-      <c r="BA13">
-        <v>-0.3824674568541571</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>0.04610019807767467</v>
-      </c>
       <c r="C14">
-        <v>-0.05836704064936939</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D14">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E14">
-        <v>-0.1366591282222051</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F14">
-        <v>-0.0927936968363893</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G14">
-        <v>-0.1818501944989162</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H14">
         <v>0.3</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>0.3</v>
       </c>
-      <c r="BA14">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>0.04610019807767467</v>
-      </c>
       <c r="C15">
-        <v>-0.05836704064936939</v>
+        <v>-0.06664829827902312</v>
       </c>
       <c r="D15">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E15">
-        <v>-0.1571320088752775</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F15">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G15">
-        <v>0.1084761866134877</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>0.04610019807767467</v>
-      </c>
-      <c r="C16">
-        <v>-0.05836704064936939</v>
-      </c>
       <c r="D16">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E16">
-        <v>-0.1571320088752775</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F16">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G16">
-        <v>0.08763903769551813</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H16">
-        <v>-0.1</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>-0.05836704064936939</v>
-      </c>
       <c r="D17">
-        <v>-0.04902304390552354</v>
+        <v>-0.1651959211720409</v>
       </c>
       <c r="E17">
-        <v>-0.1571320088752775</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F17">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G17">
-        <v>0.107459935297861</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H17">
-        <v>-0.1</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I17">
         <v>-0.07670146240877694</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>-0.07670146240877694</v>
       </c>
-      <c r="BA17">
-        <v>-0.07670146240877694</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>-0.05836704064936939</v>
-      </c>
-      <c r="D18">
-        <v>-0.04902304390552354</v>
-      </c>
       <c r="E18">
-        <v>-0.1571320088752775</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F18">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G18">
-        <v>0.086319785985172</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H18">
-        <v>-0.1</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J18">
         <v>-0.2</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>-0.2</v>
       </c>
-      <c r="BA18">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>-0.05836704064936939</v>
-      </c>
-      <c r="D19">
-        <v>-0.04902304390552354</v>
-      </c>
       <c r="E19">
-        <v>-0.1571320088752775</v>
+        <v>-0.2089739472083182</v>
       </c>
       <c r="F19">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G19">
-        <v>-0.04300149076301907</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H19">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0.1</v>
       </c>
-      <c r="BA19">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>-0.05836704064936939</v>
-      </c>
-      <c r="D20">
-        <v>-0.04902304390552354</v>
-      </c>
-      <c r="E20">
-        <v>-0.1571320088752775</v>
-      </c>
       <c r="F20">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G20">
-        <v>-0.04300149076301907</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H20">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.1571320088752775</v>
-      </c>
       <c r="F21">
-        <v>-0.1350768058547212</v>
+        <v>-0.133681529408538</v>
       </c>
       <c r="G21">
-        <v>-0.04300149076301907</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H21">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J21">
-        <v>-0.2</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K21">
         <v>-0.1</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>-0.1</v>
       </c>
-      <c r="BA21">
-        <v>-0.1</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1571320088752775</v>
-      </c>
-      <c r="F22">
-        <v>-0.1350768058547212</v>
-      </c>
       <c r="G22">
-        <v>-0.04300149076301907</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H22">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I22">
-        <v>0.1</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J22">
-        <v>-0.2</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L22">
         <v>0.1</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>0.1</v>
       </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1571320088752775</v>
-      </c>
-      <c r="F23">
-        <v>-0.1350768058547212</v>
-      </c>
       <c r="G23">
-        <v>-0.04300149076301907</v>
+        <v>-0.2558508693180825</v>
       </c>
       <c r="H23">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I23">
-        <v>0.004083108073706594</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J23">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K23">
-        <v>0.1</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0</v>
       </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1571320088752775</v>
-      </c>
-      <c r="F24">
-        <v>-0.1350768058547212</v>
-      </c>
-      <c r="G24">
-        <v>-0.04300149076301907</v>
-      </c>
       <c r="H24">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I24">
-        <v>0.004083108073706594</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J24">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L24">
-        <v>0.1</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M24">
         <v>0.3</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>0.3</v>
       </c>
-      <c r="BA24">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>-0.04300149076301907</v>
-      </c>
       <c r="H25">
-        <v>-0.06380596587233132</v>
+        <v>-0.1711824437596057</v>
       </c>
       <c r="I25">
-        <v>0.004083108073706594</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J25">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M25">
         <v>-0.3</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>-0.3</v>
       </c>
-      <c r="BA25">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>-0.04300149076301907</v>
-      </c>
-      <c r="H26">
-        <v>-0.06380596587233132</v>
-      </c>
       <c r="I26">
-        <v>0.004083108073706594</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J26">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L26">
-        <v>0.1</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N26">
         <v>-0.2</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>-0.2</v>
       </c>
-      <c r="BA26">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>-0.04300149076301907</v>
-      </c>
-      <c r="H27">
-        <v>-0.06380596587233132</v>
-      </c>
       <c r="I27">
-        <v>0.004083108073706594</v>
+        <v>-0.1063943566088681</v>
       </c>
       <c r="J27">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K27">
-        <v>-0.007670146240877695</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L27">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>-0.04300149076301907</v>
-      </c>
-      <c r="H28">
-        <v>-0.06380596587233132</v>
-      </c>
-      <c r="I28">
-        <v>0.004083108073706594</v>
-      </c>
       <c r="J28">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K28">
-        <v>-0.007670146240877695</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L28">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N28">
-        <v>0.1</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O28">
         <v>0.07231168587756959</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>0.07231168587756959</v>
       </c>
-      <c r="BA28">
-        <v>0.07231168587756959</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.004083108073706594</v>
-      </c>
       <c r="J29">
-        <v>-0.05591689192629341</v>
+        <v>-0.04833275154543806</v>
       </c>
       <c r="K29">
-        <v>-0.007670146240877695</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L29">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O29">
         <v>-0.06367835427788604</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>-0.06367835427788604</v>
       </c>
-      <c r="BA29">
-        <v>-0.06367835427788604</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.004083108073706594</v>
-      </c>
-      <c r="J30">
-        <v>-0.05591689192629341</v>
-      </c>
       <c r="K30">
-        <v>-0.007670146240877695</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L30">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N30">
-        <v>0.1</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O30">
-        <v>0.04684611228784746</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P30">
         <v>0.08504296140338079</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.08504296140338079</v>
       </c>
-      <c r="BA30">
-        <v>0.08504296140338079</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.004083108073706594</v>
-      </c>
-      <c r="J31">
-        <v>-0.05591689192629341</v>
-      </c>
       <c r="K31">
-        <v>-0.007670146240877695</v>
+        <v>-0.09183037990355467</v>
       </c>
       <c r="L31">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M31">
-        <v>0.02</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N31">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O31">
-        <v>0.02306574132610498</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P31">
         <v>0.0003037193523987569</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.0003037193523987569</v>
       </c>
-      <c r="BA31">
-        <v>0.0003037193523987569</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.004083108073706594</v>
-      </c>
-      <c r="J32">
-        <v>-0.05591689192629341</v>
-      </c>
-      <c r="K32">
-        <v>-0.007670146240877695</v>
-      </c>
       <c r="L32">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M32">
-        <v>0.02</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N32">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O32">
-        <v>0.02681128416743932</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P32">
-        <v>-0.003143006979458754</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q32">
         <v>-0.01801114345337739</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>-0.01801114345337739</v>
       </c>
-      <c r="BA32">
-        <v>-0.01801114345337739</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>-0.007670146240877695</v>
-      </c>
       <c r="L33">
-        <v>0.002329853759122305</v>
+        <v>0.0123298537591223</v>
       </c>
       <c r="M33">
-        <v>0.02</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N33">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O33">
-        <v>-0.04485916901477623</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P33">
-        <v>-0.01420714100065538</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q33">
         <v>0.03826442504165321</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>0.03826442504165321</v>
       </c>
-      <c r="BA33">
-        <v>0.03826442504165321</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>-0.007670146240877695</v>
-      </c>
-      <c r="L34">
-        <v>0.002329853759122305</v>
-      </c>
       <c r="M34">
-        <v>0.02</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N34">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O34">
-        <v>-0.02285301574382478</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P34">
-        <v>0.00767108999817942</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q34">
-        <v>-0.1019677743295293</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R34">
         <v>-0.02232391446496779</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>-0.02232391446496779</v>
       </c>
-      <c r="BA34">
-        <v>-0.02232391446496779</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>-0.007670146240877695</v>
-      </c>
-      <c r="L35">
-        <v>0.002329853759122305</v>
-      </c>
       <c r="M35">
-        <v>0.02</v>
+        <v>-0.01767014624087769</v>
       </c>
       <c r="N35">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O35">
-        <v>-0.04623557153775257</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P35">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q35">
-        <v>-0.04420399108875898</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R35">
         <v>-0.06208406292622634</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>-0.06208406292622634</v>
       </c>
-      <c r="BA35">
-        <v>-0.06208406292622634</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>-0.007670146240877695</v>
-      </c>
-      <c r="L36">
-        <v>0.002329853759122305</v>
-      </c>
-      <c r="M36">
-        <v>0.02</v>
-      </c>
       <c r="N36">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O36">
-        <v>-0.04623557153775257</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P36">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q36">
-        <v>0.01627989965737552</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R36">
-        <v>-0.09630710425613376</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S36">
         <v>0.006968764489216402</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.006968764489216402</v>
       </c>
-      <c r="BA36">
-        <v>0.006968764489216402</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.02</v>
-      </c>
       <c r="N37">
-        <v>-2.775557561562892E-18</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="O37">
-        <v>-0.04623557153775257</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P37">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q37">
-        <v>-0.01836308753882432</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R37">
-        <v>-0.1212723864535662</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S37">
         <v>-0.121948034731228</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>-0.121948034731228</v>
       </c>
-      <c r="BA37">
-        <v>-0.121948034731228</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.02</v>
-      </c>
-      <c r="N38">
-        <v>-2.775557561562892E-18</v>
-      </c>
       <c r="O38">
-        <v>-0.04623557153775257</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P38">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q38">
-        <v>0.03808599403574435</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R38">
-        <v>-0.03047052651039523</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S38">
-        <v>-0.04137894554115303</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T38">
         <v>-0.0361595126957486</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>-0.0361595126957486</v>
       </c>
-      <c r="BA38">
-        <v>-0.0361595126957486</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.02</v>
-      </c>
-      <c r="N39">
-        <v>-2.775557561562892E-18</v>
-      </c>
       <c r="O39">
-        <v>-0.04623557153775257</v>
+        <v>-0.01913666684003165</v>
       </c>
       <c r="P39">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q39">
-        <v>-0.00682473511978234</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R39">
-        <v>-0.09420006237342246</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S39">
-        <v>-0.04757626476598446</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T39">
         <v>-0.08573317974146363</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>-0.08573317974146363</v>
       </c>
-      <c r="BA39">
-        <v>-0.08573317974146363</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.02</v>
-      </c>
-      <c r="N40">
-        <v>-2.775557561562892E-18</v>
-      </c>
-      <c r="O40">
-        <v>-0.04623557153775257</v>
-      </c>
       <c r="P40">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q40">
-        <v>-0.00682473511978234</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R40">
-        <v>-0.01834967854175829</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S40">
-        <v>0.05542566282283581</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T40">
-        <v>-0.02083327549602616</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U40">
         <v>0.004670068289308601</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>0.004670068289308601</v>
       </c>
-      <c r="BA40">
-        <v>0.004670068289308601</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>-0.04623557153775257</v>
-      </c>
       <c r="P41">
-        <v>-0.04156990456264716</v>
+        <v>-0.0006019987644536914</v>
       </c>
       <c r="Q41">
-        <v>-0.00682473511978234</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R41">
-        <v>-0.01476971233224905</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S41">
-        <v>0.03463616994752567</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T41">
-        <v>-0.03184518845032182</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U41">
         <v>0.04099992594395328</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>0.04099992594395328</v>
       </c>
-      <c r="BA41">
-        <v>0.04099992594395328</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>-0.04623557153775257</v>
-      </c>
-      <c r="P42">
-        <v>-0.04156990456264716</v>
-      </c>
       <c r="Q42">
-        <v>-0.00682473511978234</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R42">
-        <v>0.02085334117929367</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S42">
-        <v>0.03788800797382201</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T42">
-        <v>0.008711613936027967</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U42">
-        <v>0.07966967513966118</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V42">
         <v>0.05927521680271484</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>0.05927521680271484</v>
       </c>
-      <c r="BA42">
-        <v>0.05927521680271484</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>-0.04623557153775257</v>
-      </c>
-      <c r="P43">
-        <v>-0.04156990456264716</v>
-      </c>
       <c r="Q43">
-        <v>-0.00682473511978234</v>
+        <v>-0.00857667060562611</v>
       </c>
       <c r="R43">
-        <v>-0.04006596816377722</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S43">
-        <v>-0.01221281921545066</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T43">
-        <v>-0.04611682995959883</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U43">
-        <v>-0.008500237636735127</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V43">
-        <v>-0.02685488242386462</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W43">
         <v>0.04061467511413108</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>0.04061467511413108</v>
       </c>
-      <c r="BA43">
-        <v>0.04061467511413108</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>-0.04623557153775257</v>
-      </c>
-      <c r="P44">
-        <v>-0.04156990456264716</v>
-      </c>
-      <c r="Q44">
-        <v>-0.00682473511978234</v>
-      </c>
       <c r="R44">
-        <v>-0.04006596816377722</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S44">
-        <v>-0.01221281921545066</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T44">
-        <v>-0.02118563397038299</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U44">
-        <v>0.02532532151524159</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V44">
-        <v>-0.002888011283271125</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W44">
-        <v>0.03471876978339621</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X44">
         <v>0.08363338226171732</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>0.08363338226171732</v>
       </c>
-      <c r="BA44">
-        <v>0.08363338226171732</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>-0.00682473511978234</v>
-      </c>
       <c r="R45">
-        <v>-0.04006596816377722</v>
+        <v>-0.01701746834474552</v>
       </c>
       <c r="S45">
-        <v>-0.01221281921545066</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T45">
-        <v>-0.05384116796081011</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U45">
-        <v>0.0004531641949189306</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V45">
-        <v>0.06397921347425059</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W45">
-        <v>0.00303944842573689</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X45">
-        <v>-0.1162995206209061</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y45">
         <v>-0.184542838621156</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>-0.184542838621156</v>
       </c>
-      <c r="BA45">
-        <v>-0.184542838621156</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>-0.00682473511978234</v>
-      </c>
-      <c r="R46">
-        <v>-0.04006596816377722</v>
-      </c>
       <c r="S46">
-        <v>-0.01221281921545066</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T46">
-        <v>-0.02737035130747983</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U46">
-        <v>0.02842624894702262</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V46">
-        <v>0.04654525283949716</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W46">
-        <v>0.01020274921383128</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X46">
-        <v>-0.04636032810675305</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y46">
-        <v>-0.06590205847732168</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z46">
         <v>-0.4</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>-0.4</v>
       </c>
-      <c r="BA46">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>-0.00682473511978234</v>
-      </c>
-      <c r="R47">
-        <v>-0.04006596816377722</v>
-      </c>
       <c r="S47">
-        <v>-0.01221281921545066</v>
+        <v>-0.008515395368946681</v>
       </c>
       <c r="T47">
-        <v>-0.0436321560377032</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U47">
-        <v>-0.007279656077506916</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V47">
-        <v>0.006446947431259998</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W47">
-        <v>0.03833228329195581</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X47">
-        <v>-0.04461341453244162</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y47">
-        <v>-0.04359550700199635</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z47">
-        <v>-0.3</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA47">
         <v>-0.3200594507515429</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>-0.3200594507515429</v>
       </c>
-      <c r="BA47">
-        <v>-0.3200594507515429</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>-0.00682473511978234</v>
-      </c>
-      <c r="R48">
-        <v>-0.04006596816377722</v>
-      </c>
-      <c r="S48">
-        <v>-0.01221281921545066</v>
-      </c>
       <c r="T48">
-        <v>-0.0436321560377032</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U48">
-        <v>-0.007279656077506916</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V48">
-        <v>0.03315758758675723</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W48">
-        <v>0.03114545954469452</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X48">
-        <v>-0.008516189360521523</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y48">
-        <v>0.005181906221472014</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z48">
-        <v>-0.1</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA48">
-        <v>-0.09134807509369489</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB48">
         <v>0.1</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>0.1</v>
       </c>
-      <c r="BA48">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>-0.04006596816377722</v>
-      </c>
-      <c r="S49">
-        <v>-0.01221281921545066</v>
-      </c>
       <c r="T49">
-        <v>-0.0436321560377032</v>
+        <v>-0.02156799777263626</v>
       </c>
       <c r="U49">
-        <v>-0.007279656077506916</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V49">
-        <v>0.006015811313147119</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W49">
-        <v>0.01880959940213669</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X49">
-        <v>-0.02953394294260252</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y49">
-        <v>-0.02076842369714289</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z49">
-        <v>-0.1</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA49">
-        <v>-0.03111260021239929</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB49">
-        <v>-0.2</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC49">
         <v>-0.2628511487790233</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>-0.2628511487790233</v>
       </c>
-      <c r="BA49">
-        <v>-0.2628511487790233</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>-0.04006596816377722</v>
-      </c>
-      <c r="S50">
-        <v>-0.01221281921545066</v>
-      </c>
-      <c r="T50">
-        <v>-0.0436321560377032</v>
-      </c>
       <c r="U50">
-        <v>-0.007279656077506916</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V50">
-        <v>0.03511010193444745</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W50">
-        <v>0.04641532780319219</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X50">
-        <v>-0.001973337278576459</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y50">
-        <v>-0.0362815961882827</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA50">
-        <v>0.00185915755765452</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC50">
-        <v>-0.1385507723021652</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD50">
         <v>-0.3133720122661878</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>-0.3133720122661878</v>
       </c>
-      <c r="BA50">
-        <v>-0.3133720122661878</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>-0.04006596816377722</v>
-      </c>
-      <c r="S51">
-        <v>-0.01221281921545066</v>
-      </c>
-      <c r="T51">
-        <v>-0.0436321560377032</v>
-      </c>
       <c r="U51">
-        <v>-0.007279656077506916</v>
+        <v>-0.02553566642488803</v>
       </c>
       <c r="V51">
-        <v>0.02617871636188919</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W51">
-        <v>0.03235534553257428</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X51">
-        <v>-0.002277353271928475</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y51">
-        <v>-0.02554289772924381</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA51">
-        <v>0.005028295396993225</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC51">
-        <v>-0.06594154085815986</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD51">
-        <v>-0.07066445558421618</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE51">
         <v>0.5469624758293199</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>0.5469624758293199</v>
       </c>
-      <c r="BA51">
-        <v>0.5469624758293199</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>-0.04006596816377722</v>
-      </c>
-      <c r="S52">
-        <v>-0.01221281921545066</v>
-      </c>
-      <c r="T52">
-        <v>-0.0436321560377032</v>
-      </c>
-      <c r="U52">
-        <v>-0.007279656077506916</v>
-      </c>
       <c r="V52">
-        <v>0.02617871636188919</v>
+        <v>-0.0178070303992788</v>
       </c>
       <c r="W52">
-        <v>0.03235534553257428</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X52">
-        <v>-0.002277353271928475</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y52">
-        <v>-0.007131856755202386</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA52">
-        <v>0.02885798659458167</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC52">
-        <v>-0.007713403081713838</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD52">
-        <v>-0.03789463622668837</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE52">
-        <v>0.03195641478533889</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF52">
         <v>1.1</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>1.1</v>
       </c>
-      <c r="BA52">
-        <v>1.1</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>-0.0436321560377032</v>
-      </c>
-      <c r="U53">
-        <v>-0.007279656077506916</v>
-      </c>
-      <c r="V53">
-        <v>0.02617871636188919</v>
-      </c>
       <c r="W53">
-        <v>0.03235534553257428</v>
+        <v>-0.01757200539203102</v>
       </c>
       <c r="X53">
-        <v>-0.002277353271928475</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y53">
-        <v>-0.02517853440761524</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA53">
-        <v>0.01495008910623384</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC53">
-        <v>-0.01082081782717691</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD53">
-        <v>-0.001604575016810911</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE53">
-        <v>-0.03690691577635818</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF53">
-        <v>-0.6</v>
+        <v>-0.4440571223929872</v>
       </c>
       <c r="AG53">
         <v>-0.4440571223929872</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>-0.4440571223929872</v>
       </c>
-      <c r="BA53">
-        <v>-0.4440571223929872</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>-0.0436321560377032</v>
-      </c>
-      <c r="U54">
-        <v>-0.007279656077506916</v>
-      </c>
-      <c r="V54">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W54">
-        <v>0.03235534553257428</v>
-      </c>
       <c r="X54">
-        <v>-0.002277353271928475</v>
+        <v>-0.006976275719362504</v>
       </c>
       <c r="Y54">
-        <v>-0.01195058994285315</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA54">
-        <v>0.03395240001300984</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC54">
-        <v>-0.02406570491612221</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD54">
-        <v>-0.006951595395129247</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE54">
-        <v>-0.03160665421100612</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF54">
-        <v>-1</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG54">
-        <v>-0.03640588554249286</v>
+        <v>-0.7255945204468831</v>
       </c>
       <c r="AH54">
         <v>-0.7255945204468831</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>-0.7255945204468831</v>
       </c>
-      <c r="BA54">
-        <v>-0.7255945204468831</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>-0.0436321560377032</v>
-      </c>
-      <c r="U55">
-        <v>-0.007279656077506916</v>
-      </c>
-      <c r="V55">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W55">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X55">
-        <v>-0.002277353271928475</v>
-      </c>
       <c r="Y55">
-        <v>-0.04157123965993421</v>
+        <v>-0.01922215328885547</v>
       </c>
       <c r="Z55">
-        <v>-0.1084542838621156</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA55">
-        <v>-0.09424150360103199</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB55">
-        <v>-0.1004602289372699</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC55">
-        <v>-0.01480966753093585</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD55">
-        <v>-0.04944166332328925</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE55">
-        <v>0.07813974366918612</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG55">
-        <v>0.008294862521336099</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH55">
-        <v>0.2069391876711988</v>
+        <v>-0.5292660609007143</v>
       </c>
       <c r="AI55">
         <v>-0.5292660609007143</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>-0.5292660609007143</v>
       </c>
-      <c r="BA55">
-        <v>-0.5292660609007143</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>-0.0436321560377032</v>
-      </c>
-      <c r="U56">
-        <v>-0.007279656077506916</v>
-      </c>
-      <c r="V56">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W56">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X56">
-        <v>-0.002277353271928475</v>
-      </c>
-      <c r="Y56">
-        <v>-0.04157123965993421</v>
-      </c>
       <c r="Z56">
-        <v>-0.1084542838621156</v>
+        <v>-0.05991902973777712</v>
       </c>
       <c r="AA56">
-        <v>-0.09424150360103199</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB56">
-        <v>-0.1004602289372699</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC56">
-        <v>0.02684185942972113</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD56">
-        <v>-0.02717991425556184</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE56">
-        <v>-0.002258099676494402</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG56">
-        <v>-0.04892787175825383</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH56">
-        <v>0.3243356571731152</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI56">
-        <v>-0.2499020898492627</v>
+        <v>-0.1550786956675604</v>
       </c>
       <c r="AJ56">
         <v>-0.1550786956675604</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>-0.1550786956675604</v>
       </c>
-      <c r="BA56">
-        <v>-0.1550786956675604</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W57">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X57">
-        <v>-0.002277353271928475</v>
-      </c>
-      <c r="Y57">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z57">
-        <v>-0.1084542838621156</v>
-      </c>
       <c r="AA57">
-        <v>-0.09424150360103199</v>
+        <v>-0.0797301713398086</v>
       </c>
       <c r="AB57">
-        <v>-0.1004602289372699</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC57">
-        <v>0.01259277546018333</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD57">
-        <v>-0.008266282929133548</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE57">
-        <v>-0.003588878278792583</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG57">
-        <v>-0.04627788463835342</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH57">
-        <v>0.03862818084466152</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI57">
-        <v>-0.301987220327034</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ57">
-        <v>0.2188137050645766</v>
+        <v>-2.168330733759602</v>
       </c>
       <c r="AK57">
         <v>-2.168330733759602</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>-2.168330733759602</v>
       </c>
-      <c r="BA57">
-        <v>-2.168330733759602</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W58">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X58">
-        <v>-0.002277353271928475</v>
-      </c>
-      <c r="Y58">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z58">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA58">
-        <v>-0.09424150360103199</v>
-      </c>
       <c r="AB58">
-        <v>-0.1004602289372699</v>
+        <v>-0.06611422007023374</v>
       </c>
       <c r="AC58">
-        <v>0.03207057760333551</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD58">
-        <v>-0.03094958137485429</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE58">
-        <v>-0.02719164318675447</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG58">
-        <v>-0.01068748065680952</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH58">
-        <v>0.04797206524184022</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI58">
-        <v>-0.2435822669317387</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ58">
-        <v>0.02510063739400653</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK58">
-        <v>0.04244805816963515</v>
+        <v>-0.03982694963614287</v>
       </c>
       <c r="AL58">
         <v>-0.03982694963614287</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>-0.03982694963614287</v>
       </c>
-      <c r="BA58">
-        <v>-0.03982694963614287</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W59">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X59">
-        <v>-0.002277353271928475</v>
-      </c>
-      <c r="Y59">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z59">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA59">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB59">
-        <v>-0.1004602289372699</v>
-      </c>
       <c r="AC59">
-        <v>-0.04532478428020572</v>
+        <v>-0.08382601697398973</v>
       </c>
       <c r="AD59">
-        <v>-0.08091758651508947</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE59">
-        <v>-0.0020716717890772</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF59">
-        <v>-0.05292606852158912</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG59">
-        <v>-0.0145798105761539</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH59">
-        <v>0.04350424554927276</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI59">
-        <v>-0.1538090242841756</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ59">
-        <v>0.04430758624740055</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK59">
-        <v>0.5436610000664334</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL59">
-        <v>0.03053896899125952</v>
+        <v>0.2669401745841223</v>
       </c>
       <c r="AM59">
         <v>0.2669401745841223</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>0.2669401745841223</v>
       </c>
-      <c r="BA59">
-        <v>0.2669401745841223</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.02617871636188919</v>
-      </c>
-      <c r="W60">
-        <v>0.03235534553257428</v>
-      </c>
-      <c r="X60">
-        <v>-0.002277353271928475</v>
-      </c>
-      <c r="Y60">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z60">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA60">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB60">
-        <v>-0.1004602289372699</v>
-      </c>
-      <c r="AC60">
-        <v>-0.04532478428020572</v>
-      </c>
       <c r="AD60">
-        <v>-0.08091758651508947</v>
+        <v>-0.1156302250295393</v>
       </c>
       <c r="AE60">
-        <v>-0.0020716717890772</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF60">
-        <v>-0.05292606852158912</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG60">
-        <v>-0.009044466214596064</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH60">
-        <v>0.04939851540392129</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI60">
-        <v>-0.00577317676607389</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ60">
-        <v>0.03127427488933457</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK60">
-        <v>0.3226642396287572</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL60">
-        <v>-0.4943583309198688</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM60">
-        <v>-0.3460299254023569</v>
+        <v>0.03791487406588956</v>
       </c>
       <c r="AN60">
         <v>0.03791487406588956</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>0.03791487406588956</v>
       </c>
-      <c r="BA60">
-        <v>0.03791487406588956</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z61">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA61">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB61">
-        <v>-0.1004602289372699</v>
-      </c>
-      <c r="AC61">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD61">
-        <v>-0.08091758651508947</v>
-      </c>
       <c r="AE61">
-        <v>-0.0020716717890772</v>
+        <v>-0.06503397004100268</v>
       </c>
       <c r="AF61">
-        <v>-0.05292606852158912</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG61">
-        <v>-0.03782858420977384</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH61">
-        <v>0.03075421111669666</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI61">
-        <v>0.07358986656317076</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ61">
-        <v>-0.007700856944595241</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK61">
-        <v>0.1953926851715814</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL61">
-        <v>-0.03145764710777538</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM61">
-        <v>-0.01797332413968833</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN61">
-        <v>0.04912388219507074</v>
+        <v>-0.04567208272808071</v>
       </c>
       <c r="AO61">
         <v>-0.04567208272808071</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>-0.04567208272808071</v>
       </c>
-      <c r="BA61">
-        <v>-0.04567208272808071</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z62">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA62">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB62">
-        <v>-0.1004602289372699</v>
-      </c>
-      <c r="AC62">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD62">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE62">
-        <v>-0.0020716717890772</v>
-      </c>
       <c r="AF62">
-        <v>-0.05292606852158912</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG62">
-        <v>-0.03720759165400969</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH62">
-        <v>0.04518831705127493</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI62">
-        <v>0.05019505626352677</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ62">
-        <v>0.00134837388745826</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK62">
-        <v>0.03570526805180541</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL62">
-        <v>-0.04812774788087792</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM62">
-        <v>-0.03916199591804981</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN62">
-        <v>0.008727482846635659</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO62">
-        <v>0.03398775604886813</v>
+        <v>-0.5154625125417773</v>
       </c>
       <c r="AP62">
         <v>-0.5154625125417773</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>-0.5154625125417773</v>
       </c>
-      <c r="BA62">
-        <v>-0.5154625125417773</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z63">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA63">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB63">
-        <v>-0.1004602289372699</v>
-      </c>
-      <c r="AC63">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD63">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE63">
-        <v>-0.0020716717890772</v>
-      </c>
       <c r="AF63">
-        <v>-0.05292606852158912</v>
+        <v>-0.009428671471986005</v>
       </c>
       <c r="AG63">
-        <v>-0.06767218351220942</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH63">
-        <v>-0.03829312627878888</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI63">
-        <v>-0.2530186559072172</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ63">
-        <v>-0.1540852678869963</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK63">
-        <v>-0.006178249755636078</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL63">
-        <v>-0.02337583031178853</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM63">
-        <v>-0.04717778368150999</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN63">
-        <v>0.0166965182527673</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO63">
-        <v>0.03050620287519542</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP63">
-        <v>0.04047683172432792</v>
+        <v>-0.1813602613933202</v>
       </c>
       <c r="AQ63">
         <v>-0.1813602613933202</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>-0.1813602613933202</v>
       </c>
-      <c r="BA63">
-        <v>-0.1813602613933202</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>-0.04157123965993421</v>
-      </c>
-      <c r="Z64">
-        <v>-0.1084542838621156</v>
-      </c>
-      <c r="AA64">
-        <v>-0.09424150360103199</v>
-      </c>
-      <c r="AB64">
-        <v>-0.1004602289372699</v>
-      </c>
-      <c r="AC64">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD64">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE64">
-        <v>-0.0020716717890772</v>
-      </c>
-      <c r="AF64">
-        <v>-0.05292606852158912</v>
-      </c>
       <c r="AG64">
-        <v>-0.06767218351220942</v>
+        <v>-0.09035146174284603</v>
       </c>
       <c r="AH64">
-        <v>-0.03829312627878888</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI64">
-        <v>-0.2530186559072172</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ64">
-        <v>-0.1540852678869963</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK64">
-        <v>-0.0137278119927412</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL64">
-        <v>-0.04131286714516019</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM64">
-        <v>-0.0455317243747756</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN64">
-        <v>-0.0204542095353839</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO64">
-        <v>0.005945473655066147</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP64">
-        <v>-0.04387442192048291</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ64">
-        <v>0.04369501132224954</v>
+        <v>-0.01480819732384536</v>
       </c>
       <c r="AR64">
         <v>-0.01480819732384536</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>-0.01480819732384536</v>
       </c>
-      <c r="BA64">
-        <v>-0.01480819732384536</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD65">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE65">
-        <v>-0.0020716717890772</v>
-      </c>
-      <c r="AF65">
-        <v>-0.05292606852158912</v>
-      </c>
-      <c r="AG65">
-        <v>-0.06767218351220942</v>
-      </c>
       <c r="AH65">
-        <v>-0.03829312627878888</v>
+        <v>-0.1248237839708019</v>
       </c>
       <c r="AI65">
-        <v>-0.2530186559072172</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ65">
-        <v>-0.1540852678869963</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK65">
-        <v>-0.04741920219820256</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL65">
-        <v>-0.04220352808913273</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM65">
-        <v>-0.04694023383333376</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN65">
-        <v>0.04282449173431949</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO65">
-        <v>-0.02569795453379112</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP65">
-        <v>0.01821396578631812</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ65">
-        <v>0.02973904496419957</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR65">
-        <v>0.03297355079550005</v>
+        <v>0.02918400950819283</v>
       </c>
       <c r="AS65">
         <v>0.02918400950819283</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>0.02918400950819283</v>
       </c>
-      <c r="BA65">
-        <v>0.02918400950819283</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD66">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE66">
-        <v>-0.0020716717890772</v>
-      </c>
-      <c r="AF66">
-        <v>-0.05292606852158912</v>
-      </c>
-      <c r="AG66">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH66">
-        <v>-0.03829312627878888</v>
-      </c>
       <c r="AI66">
-        <v>-0.2530186559072172</v>
+        <v>-0.1003316535375579</v>
       </c>
       <c r="AJ66">
-        <v>-0.1540852678869963</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK66">
-        <v>-0.04814795696917662</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL66">
-        <v>-0.04283148628474835</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM66">
-        <v>-0.04419458477459295</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN66">
-        <v>0.01154277230194778</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO66">
-        <v>0.04301021326275234</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP66">
-        <v>0.0270960776614676</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ66">
-        <v>0.01172849865054343</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR66">
-        <v>-0.03668917383431915</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS66">
-        <v>0.02976463196983974</v>
+        <v>-0.03321544329283629</v>
       </c>
       <c r="AT66">
         <v>-0.03321544329283629</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>-0.03321544329283629</v>
       </c>
-      <c r="BA66">
-        <v>-0.03321544329283629</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD67">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE67">
-        <v>-0.0020716717890772</v>
-      </c>
-      <c r="AF67">
-        <v>-0.05292606852158912</v>
-      </c>
-      <c r="AG67">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH67">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI67">
-        <v>-0.2530186559072172</v>
-      </c>
       <c r="AJ67">
-        <v>-0.1540852678869963</v>
+        <v>-0.2851587818383639</v>
       </c>
       <c r="AK67">
-        <v>-0.1143932703587146</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL67">
-        <v>-0.2901286152143837</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM67">
-        <v>-0.252822708093593</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN67">
-        <v>-0.1794841696950376</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO67">
-        <v>-0.04414965315436631</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP67">
-        <v>0.003949865091989385</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ67">
-        <v>0.04171417100533775</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR67">
-        <v>-0.02833738387902709</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS67">
-        <v>0.0425663075747533</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT67">
-        <v>0.02006819488540634</v>
+        <v>1.303303454188581E-05</v>
       </c>
       <c r="AU67">
         <v>1.303303454188581E-05</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>1.303303454188581E-05</v>
       </c>
-      <c r="BA67">
-        <v>1.303303454188581E-05</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>-0.04532478428020572</v>
-      </c>
-      <c r="AD68">
-        <v>-0.08091758651508947</v>
-      </c>
-      <c r="AE68">
-        <v>-0.0020716717890772</v>
-      </c>
-      <c r="AF68">
-        <v>-0.05292606852158912</v>
-      </c>
-      <c r="AG68">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH68">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI68">
-        <v>-0.2530186559072172</v>
-      </c>
-      <c r="AJ68">
-        <v>-0.1540852678869963</v>
-      </c>
       <c r="AK68">
-        <v>-0.1143932703587146</v>
+        <v>-0.2991414768019781</v>
       </c>
       <c r="AL68">
-        <v>-0.2901286152143837</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM68">
-        <v>-0.252822708093593</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN68">
-        <v>-0.1794841696950376</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO68">
-        <v>0.004328815227750915</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP68">
-        <v>-0.009960147238441935</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ68">
-        <v>0.04238396914448175</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR68">
-        <v>-0.01111217999950459</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS68">
-        <v>0.036103602556341</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT68">
-        <v>0.01846727715219418</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU68">
-        <v>0.03482569917000021</v>
+        <v>-0.006125572440376981</v>
       </c>
       <c r="AV68">
         <v>-0.006125572440376981</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>-0.006125572440376981</v>
       </c>
-      <c r="BA68">
-        <v>-0.006125572440376981</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH69">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI69">
-        <v>-0.2530186559072172</v>
-      </c>
-      <c r="AJ69">
-        <v>-0.1540852678869963</v>
-      </c>
-      <c r="AK69">
-        <v>-0.1143932703587146</v>
-      </c>
       <c r="AL69">
-        <v>-0.2901286152143837</v>
+        <v>-0.2461623444656635</v>
       </c>
       <c r="AM69">
-        <v>-0.252822708093593</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN69">
-        <v>-0.1794841696950376</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO69">
-        <v>0.02917851195808144</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP69">
-        <v>0.0079230561952775</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ69">
-        <v>0.04106101087725861</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR69">
-        <v>-0.01757680374667519</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS69">
-        <v>0.04479264312811146</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT69">
-        <v>-0.005362164498995153</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU69">
-        <v>0.0284849489897904</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV69">
-        <v>0.02153288689035963</v>
+        <v>0.04879937325030748</v>
       </c>
       <c r="AW69">
         <v>0.04879937325030748</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>0.04879937325030748</v>
       </c>
-      <c r="BA69">
-        <v>0.04879937325030748</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH70">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI70">
-        <v>-0.2530186559072172</v>
-      </c>
-      <c r="AJ70">
-        <v>-0.1540852678869963</v>
-      </c>
-      <c r="AK70">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL70">
-        <v>-0.2901286152143837</v>
-      </c>
       <c r="AM70">
-        <v>-0.252822708093593</v>
+        <v>-0.2110336558324558</v>
       </c>
       <c r="AN70">
-        <v>-0.1794841696950376</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO70">
-        <v>0.02063693075792813</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP70">
-        <v>0.02604151481664679</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ70">
-        <v>-0.006326920519854534</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR70">
-        <v>-0.03285080196133532</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS70">
-        <v>-0.04315841472993445</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT70">
-        <v>-0.03119922929105892</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU70">
-        <v>0.0240514243322803</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV70">
-        <v>-0.04928889592524052</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW70">
-        <v>0.0441124160817571</v>
+        <v>0.0477695913607396</v>
       </c>
       <c r="AX70">
         <v>0.0477695913607396</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.0477695913607396</v>
       </c>
-      <c r="BA70">
-        <v>0.0477695913607396</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH71">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI71">
-        <v>-0.2530186559072172</v>
-      </c>
-      <c r="AJ71">
-        <v>-0.1540852678869963</v>
-      </c>
-      <c r="AK71">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL71">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM71">
-        <v>-0.252822708093593</v>
-      </c>
       <c r="AN71">
-        <v>-0.1794841696950376</v>
+        <v>-0.2702971116881959</v>
       </c>
       <c r="AO71">
-        <v>0.005207421336940439</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP71">
-        <v>-0.04912678531527555</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ71">
-        <v>-0.05385000712189621</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR71">
-        <v>-0.08508958466123849</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS71">
-        <v>-0.02223378620736899</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT71">
-        <v>0.00215765191468896</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU71">
-        <v>0.02753124260504997</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV71">
-        <v>-0.04705968501981209</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW71">
-        <v>-0.04869699388653936</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX71">
-        <v>0.04678923642290504</v>
+        <v>0.4714513528429705</v>
       </c>
       <c r="AY71">
         <v>0.4714513528429705</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>0.4714513528429705</v>
       </c>
-      <c r="BA71">
-        <v>0.4714513528429705</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>-0.06767218351220942</v>
-      </c>
-      <c r="AH72">
-        <v>-0.03829312627878888</v>
-      </c>
-      <c r="AI72">
-        <v>-0.2530186559072172</v>
-      </c>
-      <c r="AJ72">
-        <v>-0.1540852678869963</v>
-      </c>
-      <c r="AK72">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL72">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM72">
-        <v>-0.252822708093593</v>
-      </c>
-      <c r="AN72">
-        <v>-0.1794841696950376</v>
-      </c>
       <c r="AO72">
-        <v>0.005207421336940439</v>
+        <v>-0.4318433629423735</v>
       </c>
       <c r="AP72">
-        <v>-0.04912678531527555</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ72">
-        <v>-0.05385000712189621</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR72">
-        <v>-0.08508958466123849</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS72">
-        <v>0.02549294686865362</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT72">
-        <v>-0.04242961760717481</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU72">
-        <v>-0.01921837997516321</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV72">
-        <v>0.00124993184129335</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW72">
-        <v>-0.03993168528261201</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX72">
-        <v>-0.03371275890830805</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY72">
-        <v>0.04702464512965086</v>
+        <v>-0.02605454389395597</v>
       </c>
       <c r="AZ72">
         <v>-0.02605454389395597</v>
       </c>
-      <c r="BA72">
-        <v>-0.02605454389395597</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL73">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM73">
-        <v>-0.252822708093593</v>
-      </c>
-      <c r="AN73">
-        <v>-0.1794841696950376</v>
-      </c>
-      <c r="AO73">
-        <v>0.005207421336940439</v>
-      </c>
       <c r="AP73">
-        <v>-0.04912678531527555</v>
+        <v>-0.405573676842407</v>
       </c>
       <c r="AQ73">
-        <v>-0.05385000712189621</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR73">
-        <v>-0.08508958466123849</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS73">
-        <v>0.03460179551301655</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT73">
-        <v>-0.0436853919325232</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU73">
-        <v>-0.01149461769822951</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV73">
-        <v>-0.04093277325539776</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW73">
-        <v>0.01759165642885197</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX73">
-        <v>-0.03616606200134026</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY73">
-        <v>0.0466915086155678</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ73">
-        <v>0.04252920101670427</v>
-      </c>
-      <c r="BA73">
         <v>0.04549112474043772</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL74">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM74">
-        <v>-0.252822708093593</v>
-      </c>
-      <c r="AN74">
-        <v>-0.1794841696950376</v>
-      </c>
-      <c r="AO74">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP74">
-        <v>-0.04912678531527555</v>
-      </c>
       <c r="AQ74">
-        <v>-0.05385000712189621</v>
+        <v>-0.3344950445301031</v>
       </c>
       <c r="AR74">
-        <v>-0.08508958466123849</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS74">
-        <v>0.02247265429918276</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT74">
-        <v>-0.03815815754458507</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU74">
-        <v>-0.02542857118091162</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV74">
-        <v>-0.03171075766536474</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW74">
-        <v>-0.01060763608869326</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX74">
-        <v>-0.03656516466969391</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY74">
-        <v>0.04542416388068141</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ74">
-        <v>0.03282358876177956</v>
-      </c>
-      <c r="BA74">
-        <v>0.0309492867244341</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL75">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM75">
-        <v>-0.252822708093593</v>
-      </c>
-      <c r="AN75">
-        <v>-0.1794841696950376</v>
-      </c>
-      <c r="AO75">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP75">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ75">
-        <v>-0.05385000712189621</v>
-      </c>
       <c r="AR75">
-        <v>-0.08508958466123849</v>
+        <v>-0.2786500374892124</v>
       </c>
       <c r="AS75">
-        <v>0.01995863904807878</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT75">
-        <v>-0.01241728707066911</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU75">
-        <v>0.005473334549271497</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV75">
-        <v>-0.01563532663246407</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW75">
-        <v>-0.001981843156319024</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX75">
-        <v>-0.04811498957787418</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY75">
-        <v>0.0350384627022345</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ75">
-        <v>0.04577456269623803</v>
-      </c>
-      <c r="BA75">
-        <v>0.03786046206685587</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>-0.1143932703587146</v>
-      </c>
-      <c r="AL76">
-        <v>-0.2901286152143837</v>
-      </c>
-      <c r="AM76">
-        <v>-0.252822708093593</v>
-      </c>
-      <c r="AN76">
-        <v>-0.1794841696950376</v>
-      </c>
-      <c r="AO76">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP76">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ76">
-        <v>-0.05385000712189621</v>
-      </c>
-      <c r="AR76">
-        <v>-0.08508958466123849</v>
-      </c>
       <c r="AS76">
-        <v>0.01995863904807878</v>
+        <v>-0.26646371225174</v>
       </c>
       <c r="AT76">
-        <v>-0.01241728707066911</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU76">
-        <v>0.005473334549271497</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV76">
-        <v>-0.01563532663246407</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW76">
-        <v>-0.04365244545049354</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX76">
-        <v>0.01783349575793794</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY76">
-        <v>-0.003108440183028929</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ76">
-        <v>-0.002879636236362976</v>
-      </c>
-      <c r="BA76">
-        <v>0.02378314662873918</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP77">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ77">
-        <v>-0.05385000712189621</v>
-      </c>
-      <c r="AR77">
-        <v>-0.08508958466123849</v>
-      </c>
-      <c r="AS77">
-        <v>0.01995863904807878</v>
-      </c>
       <c r="AT77">
-        <v>-0.01241728707066911</v>
+        <v>-0.04962933557232561</v>
       </c>
       <c r="AU77">
-        <v>0.005473334549271497</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV77">
-        <v>-0.01563532663246407</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW77">
-        <v>0.02426403647301548</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX77">
-        <v>0.01291032452559809</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY77">
-        <v>-0.03183628168303076</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ77">
-        <v>0.02365344711132084</v>
-      </c>
-      <c r="BA77">
-        <v>0.0268498851241776</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP78">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ78">
-        <v>-0.05385000712189621</v>
-      </c>
-      <c r="AR78">
-        <v>-0.08508958466123849</v>
-      </c>
-      <c r="AS78">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT78">
-        <v>-0.01241728707066911</v>
-      </c>
       <c r="AU78">
-        <v>0.005473334549271497</v>
+        <v>-0.04625919785274904</v>
       </c>
       <c r="AV78">
-        <v>-0.01563532663246407</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW78">
-        <v>0.02100322994600559</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX78">
-        <v>0.03243030942016766</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY78">
-        <v>-0.04528405643695903</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ78">
-        <v>0.04176216900311222</v>
-      </c>
-      <c r="BA78">
-        <v>0.04948913044124134</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP79">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ79">
-        <v>-0.05385000712189621</v>
-      </c>
-      <c r="AR79">
-        <v>-0.08508958466123849</v>
-      </c>
-      <c r="AS79">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT79">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU79">
-        <v>0.005473334549271497</v>
-      </c>
       <c r="AV79">
-        <v>-0.01563532663246407</v>
+        <v>-0.06807327798613051</v>
       </c>
       <c r="AW79">
-        <v>0.001090010831528043</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX79">
-        <v>0.005197335558043942</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY79">
-        <v>0.06619703194791335</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ79">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA79">
-        <v>0.0490967215413709</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.005207421336940439</v>
-      </c>
-      <c r="AP80">
-        <v>-0.04912678531527555</v>
-      </c>
-      <c r="AQ80">
-        <v>-0.05385000712189621</v>
-      </c>
-      <c r="AR80">
-        <v>-0.08508958466123849</v>
-      </c>
-      <c r="AS80">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT80">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU80">
-        <v>0.005473334549271497</v>
-      </c>
-      <c r="AV80">
-        <v>-0.01563532663246407</v>
-      </c>
       <c r="AW80">
-        <v>0.001090010831528043</v>
+        <v>-0.06708780625664552</v>
       </c>
       <c r="AX80">
-        <v>0.005197335558043942</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY80">
-        <v>0.06619703194791335</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ80">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA80">
-        <v>0.03478247109198193</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT81">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU81">
-        <v>0.005473334549271497</v>
-      </c>
-      <c r="AV81">
-        <v>-0.01563532663246407</v>
-      </c>
-      <c r="AW81">
-        <v>0.001090010831528043</v>
-      </c>
       <c r="AX81">
-        <v>0.005197335558043942</v>
+        <v>-0.01537546269954038</v>
       </c>
       <c r="AY81">
-        <v>0.06619703194791335</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ81">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA81">
-        <v>0.007556703559159023</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT82">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU82">
-        <v>0.005473334549271497</v>
-      </c>
-      <c r="AV82">
-        <v>-0.01563532663246407</v>
-      </c>
-      <c r="AW82">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX82">
-        <v>0.005197335558043942</v>
-      </c>
       <c r="AY82">
-        <v>0.06619703194791335</v>
+        <v>0.03356533416524175</v>
       </c>
       <c r="AZ82">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA82">
-        <v>-0.03157716901403851</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT83">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU83">
-        <v>0.005473334549271497</v>
-      </c>
-      <c r="AV83">
-        <v>-0.01563532663246407</v>
-      </c>
-      <c r="AW83">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX83">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY83">
-        <v>0.06619703194791335</v>
-      </c>
       <c r="AZ83">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA83">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.01995863904807878</v>
-      </c>
-      <c r="AT84">
-        <v>-0.01241728707066911</v>
-      </c>
-      <c r="AU84">
-        <v>0.005473334549271497</v>
-      </c>
-      <c r="AV84">
-        <v>-0.01563532663246407</v>
-      </c>
-      <c r="AW84">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX84">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY84">
-        <v>0.06619703194791335</v>
-      </c>
-      <c r="AZ84">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA84">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX85">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY85">
-        <v>0.06619703194791335</v>
-      </c>
-      <c r="AZ85">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA85">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX86">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY86">
-        <v>0.06619703194791335</v>
-      </c>
-      <c r="AZ86">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA86">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX87">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY87">
-        <v>0.06619703194791335</v>
-      </c>
-      <c r="AZ87">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA87">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.001090010831528043</v>
-      </c>
-      <c r="AX88">
-        <v>0.005197335558043942</v>
-      </c>
-      <c r="AY88">
-        <v>0.06619703194791335</v>
-      </c>
-      <c r="AZ88">
-        <v>0.07256291059128536</v>
-      </c>
-      <c r="BA88">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.02742817629043592</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.02742817629043592</v>
+        <v>0.05625047277861754</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>-0.05</v>
       </c>
       <c r="AG64">
-        <v>-0.4440571223929872</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH64">
         <v>-2</v>
@@ -9316,10 +9316,10 @@
         <v>-0.05</v>
       </c>
       <c r="AG65">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH65">
-        <v>-0.7255945204468831</v>
+        <v>-0.27</v>
       </c>
       <c r="AI65">
         <v>1.4</v>
@@ -9405,13 +9405,13 @@
         <v>-0.05</v>
       </c>
       <c r="AG66">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH66">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI66">
-        <v>-0.5292660609007143</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ66">
         <v>1.4</v>
@@ -9491,16 +9491,16 @@
         <v>-0.05</v>
       </c>
       <c r="AG67">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH67">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI67">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ67">
-        <v>-0.1550786956675604</v>
+        <v>-0.13</v>
       </c>
       <c r="AK67">
         <v>0.1</v>
@@ -9574,19 +9574,19 @@
         <v>-0.05</v>
       </c>
       <c r="AG68">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH68">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI68">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ68">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK68">
-        <v>-2.168330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL68">
         <v>-0.1</v>
@@ -9654,22 +9654,22 @@
         <v>-0.05</v>
       </c>
       <c r="AG69">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH69">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI69">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ69">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK69">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL69">
-        <v>-0.03982694963614287</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM69">
         <v>0.1</v>
@@ -9731,25 +9731,25 @@
         <v>-0.05</v>
       </c>
       <c r="AG70">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH70">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI70">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ70">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK70">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL70">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM70">
-        <v>0.2669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN70">
         <v>1.2</v>
@@ -9805,28 +9805,28 @@
         <v>-0.05</v>
       </c>
       <c r="AG71">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH71">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI71">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ71">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK71">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL71">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM71">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN71">
-        <v>0.03791487406588956</v>
+        <v>0.17</v>
       </c>
       <c r="AO71">
         <v>0.1</v>
@@ -9876,31 +9876,31 @@
         <v>-0.05</v>
       </c>
       <c r="AG72">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH72">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI72">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ72">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK72">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL72">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM72">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN72">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO72">
-        <v>-0.04567208272808071</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP72">
         <v>-0.1</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.07440571223929873</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="AH73">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI73">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ73">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK73">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL73">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM73">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN73">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO73">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP73">
-        <v>-0.5154625125417773</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ73">
         <v>0.3</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.07440571223929873</v>
-      </c>
       <c r="AH74">
-        <v>-0.3725594520446883</v>
+        <v>-0.27</v>
       </c>
       <c r="AI74">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ74">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK74">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL74">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM74">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN74">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO74">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP74">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ74">
-        <v>-0.1813602613933202</v>
+        <v>0.1</v>
       </c>
       <c r="AR74">
         <v>0</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>-0.3725594520446883</v>
-      </c>
       <c r="AI75">
-        <v>-0.2429266060900714</v>
+        <v>-0.15</v>
       </c>
       <c r="AJ75">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK75">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL75">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM75">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN75">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO75">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP75">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ75">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR75">
-        <v>-0.01480819732384536</v>
+        <v>0.31</v>
       </c>
       <c r="AS75">
         <v>0.4</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>-0.2429266060900714</v>
-      </c>
       <c r="AJ76">
-        <v>-0.1355078695667561</v>
+        <v>-0.13</v>
       </c>
       <c r="AK76">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL76">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM76">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN76">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO76">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP76">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ76">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR76">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS76">
-        <v>0.02918400950819283</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT76">
         <v>-0.4</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>-0.1355078695667561</v>
-      </c>
       <c r="AK77">
-        <v>-0.1968330733759602</v>
+        <v>-0.06000000000000002</v>
       </c>
       <c r="AL77">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM77">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN77">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO77">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP77">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ77">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR77">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS77">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT77">
-        <v>-0.03321544329283629</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU77">
         <v>-0.1</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>-0.1968330733759602</v>
-      </c>
       <c r="AL78">
-        <v>-0.05398269496361428</v>
+        <v>-0.02999999999999998</v>
       </c>
       <c r="AM78">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN78">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO78">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP78">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ78">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR78">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS78">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT78">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU78">
-        <v>1.303303454188581E-05</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV78">
         <v>0</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>-0.05398269496361428</v>
-      </c>
       <c r="AM79">
-        <v>0.07669401745841223</v>
+        <v>-0.04</v>
       </c>
       <c r="AN79">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO79">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP79">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ79">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR79">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS79">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT79">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU79">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV79">
-        <v>-0.006125572440376981</v>
+        <v>0</v>
       </c>
       <c r="AW79">
         <v>0.4</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.07669401745841223</v>
-      </c>
       <c r="AN80">
-        <v>0.143791487406589</v>
+        <v>0.17</v>
       </c>
       <c r="AO80">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP80">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ80">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR80">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS80">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT80">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU80">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV80">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW80">
-        <v>0.04879937325030748</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX80">
         <v>0.8</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.143791487406589</v>
-      </c>
       <c r="AO81">
-        <v>0.02543279172719195</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="AP81">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ81">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR81">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS81">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT81">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU81">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV81">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW81">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX81">
-        <v>0.0477695913607396</v>
+        <v>0.13</v>
       </c>
       <c r="AY81">
         <v>0.8</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.02543279172719195</v>
-      </c>
       <c r="AP82">
-        <v>-0.0015462512541777</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="AQ82">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR82">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS82">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT82">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU82">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV82">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW82">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX82">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY82">
-        <v>0.4714513528429705</v>
+        <v>0.1</v>
       </c>
       <c r="AZ82">
         <v>-0.9</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>-0.0015462512541777</v>
-      </c>
       <c r="AQ83">
-        <v>0.271863973860668</v>
+        <v>0.1</v>
       </c>
       <c r="AR83">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS83">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT83">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU83">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV83">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW83">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX83">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY83">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ83">
-        <v>-0.02605454389395597</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA83">
         <v>0.5</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.271863973860668</v>
-      </c>
       <c r="AR84">
-        <v>0.2585191802676156</v>
+        <v>0.31</v>
       </c>
       <c r="AS84">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT84">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU84">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV84">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW84">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX84">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY84">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ84">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA84">
-        <v>0.04549112474043772</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.2585191802676156</v>
-      </c>
       <c r="AS85">
-        <v>0.002918400950819272</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="AT85">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU85">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV85">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW85">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX85">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY85">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ85">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA85">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.002918400950819272</v>
-      </c>
       <c r="AT86">
-        <v>0.09667845567071635</v>
+        <v>0.009999999999999986</v>
       </c>
       <c r="AU86">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV86">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW86">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX86">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY86">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ86">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA86">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.09667845567071635</v>
-      </c>
       <c r="AU87">
-        <v>0.05000130330345419</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="AV87">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW87">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX87">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY87">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ87">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA87">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.05000130330345419</v>
-      </c>
       <c r="AV88">
-        <v>-0.02061255724403767</v>
+        <v>0</v>
       </c>
       <c r="AW88">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX88">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY88">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ88">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA88">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>-0.02061255724403767</v>
-      </c>
       <c r="AW89">
-        <v>0.04487993732503075</v>
+        <v>0.01000000000000003</v>
       </c>
       <c r="AX89">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY89">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ89">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA89">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.04487993732503075</v>
-      </c>
       <c r="AX90">
-        <v>0.06477695913607398</v>
+        <v>0.13</v>
       </c>
       <c r="AY90">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ90">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA90">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.06477695913607398</v>
-      </c>
       <c r="AY91">
-        <v>0.1271451352842971</v>
+        <v>0.1</v>
       </c>
       <c r="AZ91">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA91">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.1271451352842971</v>
-      </c>
       <c r="AZ92">
-        <v>-0.07260545438939559</v>
+        <v>-0.02999999999999999</v>
       </c>
       <c r="BA92">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.07260545438939559</v>
-      </c>
       <c r="BA93">
-        <v>0.04454911247404379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.04454911247404379</v>
+        <v>0.03000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>-1</v>
       </c>
+      <c r="BB2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>0.5</v>
       </c>
+      <c r="BB3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>-0.4</v>
       </c>
+      <c r="BB4">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>0.2</v>
       </c>
+      <c r="BB5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-0.2</v>
       </c>
+      <c r="BB6">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>0</v>
       </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>-1.6</v>
       </c>
+      <c r="BB8">
+        <v>-1.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>1.2</v>
       </c>
+      <c r="BB9">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>-0.5</v>
       </c>
+      <c r="BB10">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>1</v>
       </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>0.3</v>
       </c>
+      <c r="BB12">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>-0.4</v>
       </c>
+      <c r="BB13">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>0.2</v>
       </c>
+      <c r="BB14">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>-0.3</v>
       </c>
+      <c r="BB15">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>1.2</v>
       </c>
+      <c r="BB16">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>-0.7</v>
       </c>
+      <c r="BB17">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>-0.2</v>
       </c>
+      <c r="BB18">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>-0.3</v>
       </c>
+      <c r="BB19">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>-0.6</v>
       </c>
+      <c r="BB20">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>-0.4</v>
       </c>
+      <c r="BB21">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>0.5</v>
       </c>
+      <c r="BB22">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0</v>
       </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>-0.1</v>
       </c>
+      <c r="BB24">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>0.3</v>
       </c>
+      <c r="BB25">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.1</v>
       </c>
+      <c r="BB26">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>0</v>
       </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.4</v>
       </c>
+      <c r="BB28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>-0.7</v>
       </c>
+      <c r="BB29">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>0</v>
       </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>-0.1</v>
       </c>
+      <c r="BB31">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>-0.5</v>
       </c>
+      <c r="BB32">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>0.2</v>
       </c>
+      <c r="BB33">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>0.1</v>
       </c>
+      <c r="BB34">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>-0.4</v>
       </c>
+      <c r="BB35">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0</v>
       </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>0.3</v>
       </c>
+      <c r="BB37">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>0.4</v>
       </c>
+      <c r="BB38">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>-0.5</v>
       </c>
+      <c r="BB39">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>0.2</v>
       </c>
+      <c r="BB40">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>0.1</v>
       </c>
+      <c r="BB41">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>-0.1</v>
       </c>
+      <c r="BB42">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>-0.1</v>
       </c>
+      <c r="BB43">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>0.3</v>
       </c>
+      <c r="BB44">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>0.4</v>
       </c>
+      <c r="BB45">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>-0.1</v>
       </c>
+      <c r="BB46">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>-0.8</v>
       </c>
+      <c r="BB47">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>0.2</v>
       </c>
+      <c r="BB48">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>-0.9</v>
       </c>
+      <c r="BB49">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>0.3</v>
       </c>
+      <c r="BB50">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>0.1</v>
       </c>
+      <c r="BB51">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-0.1</v>
       </c>
+      <c r="BB52">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>-1.9</v>
       </c>
+      <c r="BB53">
+        <v>-1.9</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>0.5</v>
       </c>
+      <c r="BB54">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>2.2</v>
       </c>
+      <c r="BB55">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>-0.9</v>
       </c>
+      <c r="BB56">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>0.1</v>
       </c>
+      <c r="BB57">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>0.2</v>
       </c>
+      <c r="BB58">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>-0.3</v>
       </c>
+      <c r="BB59">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>0.7</v>
       </c>
+      <c r="BB60">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>0.2</v>
       </c>
+      <c r="BB61">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>0.4</v>
       </c>
+      <c r="BB62">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>-0.1</v>
       </c>
+      <c r="BB63">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>0.2</v>
       </c>
+      <c r="BB64">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>-0.6</v>
       </c>
+      <c r="BB65">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>-0.7</v>
       </c>
+      <c r="BB66">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>0</v>
       </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>0</v>
       </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>0.9</v>
       </c>
+      <c r="BB69">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>0.5</v>
       </c>
+      <c r="BB70">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>-0.4</v>
       </c>
+      <c r="BB71">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>0.5</v>
       </c>
+      <c r="BB72">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB73">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB74">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB75">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB76">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB77">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB78">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB79">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB80">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>0.03000000000000002</v>
       </c>
+      <c r="BB81">
+        <v>0.04000000000000002</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.03000000000000002</v>
+      </c>
+      <c r="BB82">
+        <v>0.04000000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.04000000000000002</v>
       </c>
     </row>
   </sheetData>
